--- a/Europatipset.xlsx
+++ b/Europatipset.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,35 +491,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Piteå IF - AIK</t>
+          <t>Manch.U - Crystal P</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="D2" t="n">
-        <v>4.25</v>
+        <v>4.55</v>
       </c>
       <c r="E2" t="n">
-        <v>5.05</v>
+        <v>6.55</v>
       </c>
       <c r="F2" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="H2" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.225165562913913</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.529411764705883</v>
+        <v>-2.978021978021977</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.801980198019802</v>
+        <v>-4.267175572519085</v>
       </c>
     </row>
     <row r="3">
@@ -529,35 +528,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mjöndalen - Odds BK</t>
+          <t>Aston V. - Leicester</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.61</v>
+        <v>2.33</v>
       </c>
       <c r="D3" t="n">
-        <v>3.13</v>
+        <v>3.38</v>
       </c>
       <c r="E3" t="n">
-        <v>2.48</v>
+        <v>3.2</v>
       </c>
       <c r="F3" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.31</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.39</v>
-      </c>
       <c r="I3" t="n">
-        <v>-7.31417624521073</v>
+        <v>0.0815450643776805</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.94888178913738</v>
+        <v>-3.585798816568047</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.322580645161292</v>
+        <v>-0.2500000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -566,35 +565,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vålerenge - Sarpsbor.</t>
+          <t>Tottenham - Norwich</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="D4" t="n">
-        <v>3.97</v>
+        <v>4.95</v>
       </c>
       <c r="E4" t="n">
-        <v>6.05</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.567567567567567</v>
+        <v>10.05755395683452</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1889168765743077</v>
+        <v>-7.202020202020202</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.52892561983471</v>
+        <v>-7.048192771084335</v>
       </c>
     </row>
     <row r="5">
@@ -603,35 +602,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Valur - FH Hafnar</t>
+          <t>Leeds - Brentford</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="D5" t="n">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="E5" t="n">
-        <v>3.38</v>
+        <v>4.3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="H5" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I5" t="n">
-        <v>5.916666666666659</v>
+        <v>9.71794871794871</v>
       </c>
       <c r="J5" t="n">
-        <v>-4.069767441860467</v>
+        <v>-5.154518950437314</v>
       </c>
       <c r="K5" t="n">
-        <v>-12.58579881656805</v>
+        <v>-8.255813953488373</v>
       </c>
     </row>
     <row r="6">
@@ -640,35 +639,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Balkan - Hässle IF</t>
+          <t>Sampdoria - Lazio</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.93</v>
+        <v>3.53</v>
       </c>
       <c r="D6" t="n">
-        <v>3.33</v>
+        <v>3.58</v>
       </c>
       <c r="E6" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="F6" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="G6" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="H6" t="n">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.129692832764501</v>
+        <v>-5.328611898016996</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.030030030030032</v>
+        <v>-2.932960893854747</v>
       </c>
       <c r="K6" t="n">
-        <v>-7.248868778280543</v>
+        <v>3.690821256038646</v>
       </c>
     </row>
     <row r="7">
@@ -677,35 +676,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bragantin - Ceará</t>
+          <t>Venezia - H.Verona</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.61</v>
+        <v>3.94</v>
       </c>
       <c r="D7" t="n">
-        <v>3.55</v>
+        <v>3.38</v>
       </c>
       <c r="E7" t="n">
-        <v>5.1</v>
+        <v>2.01</v>
       </c>
       <c r="F7" t="n">
-        <v>0.65</v>
+        <v>0.18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="H7" t="n">
-        <v>0.11</v>
+        <v>0.52</v>
       </c>
       <c r="I7" t="n">
-        <v>2.888198757763982</v>
+        <v>-7.380710659898476</v>
       </c>
       <c r="J7" t="n">
-        <v>-4.169014084507045</v>
+        <v>0.4142011834319503</v>
       </c>
       <c r="K7" t="n">
-        <v>-8.607843137254905</v>
+        <v>2.248756218905468</v>
       </c>
     </row>
     <row r="8">
@@ -714,35 +713,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Atlét. MG - Atlét. GO</t>
+          <t>Spezia - Sassuolo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.62</v>
+        <v>3.35</v>
       </c>
       <c r="D8" t="n">
-        <v>3.31</v>
+        <v>3.64</v>
       </c>
       <c r="E8" t="n">
-        <v>5.5</v>
+        <v>2.13</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="H8" t="n">
-        <v>0.16</v>
+        <v>0.57</v>
       </c>
       <c r="I8" t="n">
-        <v>-5.728395061728387</v>
+        <v>-10.85074626865671</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.21148036253776</v>
+        <v>-3.47252747252747</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.181818181818182</v>
+        <v>10.05164319248826</v>
       </c>
     </row>
     <row r="9">
@@ -751,35 +750,220 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cuiaba MT - Flamengo</t>
+          <t>Juventus - Genoa</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.55</v>
+        <v>1.19</v>
       </c>
       <c r="D9" t="n">
-        <v>3.37</v>
+        <v>7.15</v>
       </c>
       <c r="E9" t="n">
-        <v>1.61</v>
+        <v>15.25</v>
       </c>
       <c r="F9" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.966386554621849</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-4.986013986013985</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-4.557377049180328</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Celta - Valencia</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3809523809523818</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1.850746268656711</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-3.247956403269758</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Elche - Cadiz</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.495049504950498</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5534591194968574</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-8.809523809523808</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Levante - Osasuna</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-9.248868778280544</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.51219512195122</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.760233918128658</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bordeaux - Lyon</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-11.97802197802198</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-3.529411764705881</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10.8284023668639</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mgladb. - Freiburg</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.14</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-4.018018018018019</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-0.6735905044510382</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-5.111801242236025</v>
+      <c r="I14" t="n">
+        <v>7.857142857142863</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-4.316455696202529</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-8.22222222222222</v>
       </c>
     </row>
   </sheetData>
